--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs\Documents\我的文档\书籍\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs\Documents\GitHub\WeChat-Article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2667105-8174-4F8B-B147-1D7C5E75F30C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33817B7-C57A-4218-8C8D-7B6DFFC1B929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="234">
   <si>
     <t>NO.</t>
   </si>
@@ -787,22 +787,6 @@
   </si>
   <si>
     <t>市场营销原理</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>优秀的人都善于对自己下狠手</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈立飞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>已读</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复工作也要有势能。在大城市一定要明确目标，对未来布局</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1485,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8177B24F-8F88-4B00-8839-0DE0400DF288}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1813,24 +1797,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>237</v>
-      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
